--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="480" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="13060" yWindow="1200" windowWidth="20680" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Dropout</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>accurac</t>
   </si>
 </sst>
 </file>
@@ -450,19 +453,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L7"/>
+  <dimension ref="A3:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="12" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="13" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -494,13 +497,16 @@
         <v>8</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -525,8 +531,20 @@
       <c r="I4" s="1">
         <v>0.5</v>
       </c>
+      <c r="J4" s="1">
+        <v>0.81730000000000003</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="L4" s="1">
+        <v>217</v>
+      </c>
+      <c r="M4" s="1">
+        <v>470</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -551,8 +569,20 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
+      <c r="J5" s="1">
+        <v>0.75129999999999997</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="L5" s="1">
+        <v>299</v>
+      </c>
+      <c r="M5" s="1">
+        <v>500</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -578,7 +608,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>3</v>
       </c>
